--- a/Debug/users.xlsx
+++ b/Debug/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6424223F-F32F-4BF3-AFB3-52675CE4EEF9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59A324B9-68E6-40DE-BC36-487C7F7E19C3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,15 +611,15 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127))</f>
-        <v>IgnJ</v>
+        <v>KrIJ</v>
       </c>
       <c r="B2" s="1" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4), 13,15,17,18) &amp; RANDBETWEEN(1000,9999) &amp; RANDBETWEEN(1000,9999)</f>
-        <v>1836273316</v>
+        <v>1570566275</v>
       </c>
       <c r="C2" s="1" t="str">
         <f ca="1" xml:space="preserve"> CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127))</f>
-        <v>mgpn_mfv</v>
+        <v>eQNiSv|R</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -634,15 +634,15 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127))</f>
-        <v>WEg\</v>
+        <v>Szici</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" ref="B3:B16" ca="1" si="0">CHOOSE(RANDBETWEEN(1,4), 13,15,17,18) &amp; RANDBETWEEN(1000,9999) &amp; RANDBETWEEN(1000,9999)</f>
-        <v>1885562771</v>
+        <v>1353852350</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C16" ca="1" si="1" xml:space="preserve"> CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127))</f>
-        <v>MQSXD{G</v>
+        <v>Q|zOg[Nw</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -657,15 +657,15 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127))</f>
-        <v>S[PIU`</v>
+        <v>RtEhMt</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1563636608</v>
+        <v>1790997309</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DG{cvw</v>
+        <v>ODHC[nO^</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -680,15 +680,15 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f t="shared" ref="A5:A16" ca="1" si="2">CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127)) &amp; CHAR(RANDBETWEEN(65,127))</f>
-        <v>msxU</v>
+        <v>yH_G</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1858587558</v>
+        <v>1384603407</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A_N{kcbd</v>
+        <v>uj|eJnGv</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -703,15 +703,15 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>teNr</v>
+        <v>MgWt</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1529483567</v>
+        <v>1328265840</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>C~j]B]q</v>
+        <v>u{wbgyap</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
@@ -726,15 +726,15 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SNjm</v>
+        <v>L[o</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1588062685</v>
+        <v>1797606828</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>gDCRmc_^</v>
+        <v>AXOZ[raC</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -749,15 +749,15 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>h_bK</v>
+        <v>^tm_</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1357572379</v>
+        <v>1368398896</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>_WoGThGv</v>
+        <v>iAKxWlDz</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
@@ -772,15 +772,15 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>^xeN</v>
+        <v>n[Ot</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1872619054</v>
+        <v>1886546693</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>IcHWzz`</v>
+        <v>FzAykmV`</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -795,15 +795,15 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>cqyd</v>
+        <v>lFsX</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1732418006</v>
+        <v>1731226586</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>gIfMSO]n</v>
+        <v>T|kPFMON</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
@@ -818,15 +818,15 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>U}Mq</v>
+        <v>ltJE</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1752269372</v>
+        <v>1862769105</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>uuJkdUtD</v>
+        <v>pyiUEVD</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>33</v>
@@ -841,15 +841,15 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>j`Vb</v>
+        <v>jcb|</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1875792441</v>
+        <v>1886445999</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NmlUZVRM</v>
+        <v>weZFFAb^</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
@@ -864,15 +864,15 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]cjt</v>
+        <v>rtQW</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1761467985</v>
+        <v>1860554208</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZQ`jPiWE</v>
+        <v>^UI^\JMO</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>39</v>
@@ -887,15 +887,15 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>zgm]</v>
+        <v>XARn</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1558323096</v>
+        <v>1539642970</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Nq]}rB^i</v>
+        <v>vjgjfDWn</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>42</v>
@@ -910,15 +910,15 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>jSTw</v>
+        <v>ljuT</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1779157343</v>
+        <v>1898684673</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>|~duSLt|</v>
+        <v>|T[kanN\</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
@@ -933,15 +933,15 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Zz~o</v>
+        <v>z}}[</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1528093470</v>
+        <v>1517419955</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>xdYbh\Y</v>
+        <v>KvixPgGM</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>48</v>
